--- a/pred_ohlcv/54_21/2020-01-19 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WPX ohlcv.xlsx
@@ -2966,7 +2966,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1439028.182746836</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1443485.309678186</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1449390.520878186</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1434401.807909535</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1424762.206909535</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2590719.946962538</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2639447.287162538</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2654925.191262538</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2662035.916122664</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2692347.798017571</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2675501.441017571</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-2639477.603117571</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2638508.187517571</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2627173.027217571</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2632515.434117571</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1638732.492864258</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1783518.943364258</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1837788.487764258</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1828418.262664258</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1829512.824764258</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1829192.185664258</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1838584.099864258</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1837011.995864258</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1824372.372664258</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1830742.065164258</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1829656.279364258</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1815743.633996266</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1817603.518896266</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1819091.623296266</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1838415.284738221</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1838409.703538221</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1848473.204638221</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1816494.768670653</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1655362.044216945</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1607480.015116945</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1609347.790116945</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-1545719.735116945</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-1534855.991198065</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1440527.520698065</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1424361.201598065</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1398797.214398065</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1411297.214398065</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-1428549.972098065</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-1336931.268198065</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-1319365.384492802</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-1329387.159092802</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-1011718.502092802</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-1037799.041292802</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-799992.9227928021</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-747428.8222928022</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-738114.0499928022</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-982234.0322851969</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-979122.566185197</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-949051.963085197</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-953473.469485197</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-963139.772085197</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-702330.6522851971</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-473602.8094357374</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-441921.8720851971</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-396746.685185197</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-342132.242685197</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-167477.178985197</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-44531.79644659093</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-191462.9602156381</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-246782.8824156381</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>932621.6194397944</v>
       </c>
       <c r="H931">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>939785.5154397944</v>
       </c>
       <c r="H932">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>940689.996727173</v>
       </c>
       <c r="H933">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>879989.9110520809</v>
       </c>
       <c r="H934">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>1012317.634652081</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1010584.795352081</v>
       </c>
       <c r="H936">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H937">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H938">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>996352.280952081</v>
       </c>
       <c r="H939">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>1003413.542452081</v>
       </c>
       <c r="H940">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 WPX ohlcv.xlsx
@@ -2966,7 +2966,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-1451485.817415487</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-1439028.182746836</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-1443485.309678186</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1449390.520878186</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1434401.807909535</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1424762.206909535</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1413555.593309535</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-2590719.946962538</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-2639447.287162538</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2654925.191262538</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-2662035.916122664</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-2502225.834390995</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-2474920.334662847</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-2419102.843890995</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-2692347.798017571</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-2675437.841717571</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-2675501.441017571</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-2672347.948417571</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-2639477.603117571</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-2639492.603117571</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-2637046.571117571</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-2638508.187517571</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-2627173.027217571</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-2632515.434117571</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-1638732.492864258</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-1762957.871464258</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-1783518.943364258</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-1837788.487764258</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1828418.262664258</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1829512.824764258</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1829192.185664258</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1838584.099864258</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1837011.995864258</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1824372.372664258</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-1827747.372664258</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-1830742.065164258</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-1829656.279364258</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-1815743.633996266</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-1817603.518896266</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-1819091.623296266</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-1838415.284738221</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-1838409.703538221</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-1848473.204638221</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-1812023.994770654</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-1816494.768670653</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-1655362.044216945</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-1607480.015116945</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-1609347.790116945</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-1545719.735116945</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-1534855.991198065</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-1436603.078598065</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-1440527.520698065</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-1424361.201598065</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-1411210.846098065</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-1398797.214398065</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-1411297.214398065</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-1428549.972098065</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-1336931.268198065</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-1299550.541892802</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-1319365.384492802</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-1329387.159092802</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-1011718.502092802</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-1037799.041292802</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-799992.9227928021</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-747428.8222928022</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-738114.0499928022</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-982234.0322851969</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-979122.566185197</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-949051.963085197</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-953473.469485197</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-963139.772085197</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-968158.379085197</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-702330.6522851971</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-542624.7632851971</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-473602.8094357374</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-441921.8720851971</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-396746.685185197</v>
       </c>
       <c r="H892">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-342132.242685197</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-167477.178985197</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-44531.79644659093</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>173898.4525682598</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>37706.72371350494</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>9570.977413504937</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>24161.82851350494</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-51919.13665985251</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-60577.18371563814</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-35194.28241563812</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-58170.79131563813</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-12174.33091563812</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>31848.37908436188</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>21580.32878436187</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-82240.70411563813</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-157267.3949156381</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-206355.1380156381</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-191462.9602156381</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-246317.9509156381</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-175288.0825156381</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-246782.8824156381</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>932621.6194397944</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>939785.5154397944</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>940689.996727173</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>879989.9110520809</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>1012317.634652081</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>1010584.795352081</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>996042.280952081</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>996352.280952081</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>1003413.542452081</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
